--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.020521.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.020521.xlsx_with_dialog_acts.xlsx
@@ -675,12 +675,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1435,12 +1435,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1555,12 +1555,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1595,12 +1595,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1715,12 +1715,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1955,12 +1955,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2995,12 +2995,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3035,12 +3035,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3475,12 +3475,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3515,12 +3515,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3675,12 +3675,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3715,12 +3715,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4235,12 +4235,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4315,12 +4315,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4435,12 +4435,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4559,12 +4559,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4599,12 +4599,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5399,12 +5399,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6319,12 +6319,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6439,12 +6439,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7359,12 +7359,12 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7559,12 +7559,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7639,12 +7639,12 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7679,12 +7679,12 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7799,12 +7799,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7919,12 +7919,12 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8003,12 +8003,12 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8043,12 +8043,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8363,12 +8363,12 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8567,12 +8567,12 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8687,12 +8687,12 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8727,12 +8727,12 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9207,12 +9207,12 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9247,12 +9247,12 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9599,12 +9599,12 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9865,12 +9865,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9941,12 +9941,12 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11009,12 +11009,12 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11199,12 +11199,12 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11503,12 +11503,12 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11925,12 +11925,12 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11963,12 +11963,12 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12955,12 +12955,12 @@
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13221,12 +13221,12 @@
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13259,12 +13259,12 @@
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13449,12 +13449,12 @@
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14133,12 +14133,12 @@
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14171,12 +14171,12 @@
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14285,12 +14285,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14323,12 +14323,12 @@
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14437,12 +14437,12 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
